--- a/biology/Zoologie/Actinote_(genre)/Actinote_(genre).xlsx
+++ b/biology/Zoologie/Actinote_(genre)/Actinote_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinote est un genre de papillons, de la famille des Nymphalidés (sous-famille des Heliconiinae). Il compte une soixantaine d'espèces, originaires d'Amérique.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Actinote a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
-Son espèce type est Actinote thalia Linnaeus, 1758[1].
+Son espèce type est Actinote thalia Linnaeus, 1758.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Actinote alalia (C. &amp; R. Felder, 1860); présent au Brésil.
 Actinote bonita Penz, 1996; présent au Brésil.
@@ -560,14 +576,14 @@
 Actinote lapitha (Staudinger, 1885); à Panama et au Costa Rica.
 Actinote latior Jordan, 1913; présent en Colombie, au Venezuela, en Équateur, en Bolivie, au Brésil et au Pérou.
 Actinote mamita (Burmeister, 1861); en Argentine et au Brésil.
-Actinote melampeplos Godman &amp; Salvin, [1881]; présent à Panama, au Costa Rica et en Équateur.
+Actinote melampeplos Godman &amp; Salvin, ; présent à Panama, au Costa Rica et en Équateur.
 Actinote melanisans Oberthür, 1917; au Brésil et en Argentine.
 Actinote mielkei Paluch &amp; Casagrande, 2006; en Bolivie.
 Actinote mirnae Paluch &amp; Mielke, 2006; en Bolivie et au Pérou.
 Actinote morio Oberthür, 1917; au Brésil.
 Actinote pallescens Jordan, 1913; au Brésil.
 Actinote parapheles Jordan, 1913; au Brésil et en Argentine.
-Actinote pellenea Hübner, [1821]; présent en Colombie, en Bolivie, au Paraguay, en Uruguay, au Venezuela, à Trinité-et-Tobago, en Équateur, au Brésil,  en Argentine et au Pérou.
+Actinote pellenea Hübner, ; présent en Colombie, en Bolivie, au Paraguay, en Uruguay, au Venezuela, à Trinité-et-Tobago, en Équateur, au Brésil,  en Argentine et au Pérou.
 Actinote pratensis Francini, Freitas &amp; Penz, 2004; présent au Brésil.
 Actinote pyrrha (Fabricius, 1775); présent en Bolivie,  en Argentine et au Brésil.
 Actinote quadra (Schaus, 1902); présent au Brésil.
